--- a/Code/clinical/Ranges.xlsx
+++ b/Code/clinical/Ranges.xlsx
@@ -207,7 +207,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -295,7 +295,7 @@
         <v>200</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>55</v>

--- a/Code/clinical/Ranges.xlsx
+++ b/Code/clinical/Ranges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">temp_vsorres</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">If in acceptable range but negative, multiply by -1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -170,13 +167,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -207,7 +200,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,320 +222,329 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="n">
+      <c r="K2" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="2" t="n">
         <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="J3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="2" t="n">
         <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>-100</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>-100</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="n">
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Code/clinical/Ranges.xlsx
+++ b/Code/clinical/Ranges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t xml:space="preserve">temp_vsorres</t>
   </si>
@@ -64,6 +64,18 @@
     <t xml:space="preserve">age</t>
   </si>
   <si>
+    <t xml:space="preserve">daily_sao2_lborres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily_fio2_lborres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily_fio2b_lborres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily_fio2c_lborres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hard upper</t>
   </si>
   <si>
@@ -76,16 +88,13 @@
     <t xml:space="preserve">Hard lower</t>
   </si>
   <si>
-    <t xml:space="preserve">If spike at zero, set to nan?</t>
+    <t xml:space="preserve">If negative, multiply by -1?</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If in acceptable range but negative, multiply by -1?</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +186,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,15 +210,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
@@ -218,334 +231,363 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="17.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <v>1070</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="2" t="n">
         <v>800</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="2" t="n">
         <v>1100</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>65</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="2" t="n">
         <v>50</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>-100</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="F5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>-100</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
